--- a/Modelo Relacional 2.xlsx
+++ b/Modelo Relacional 2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
+    <workbookView windowWidth="20475" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,23 +16,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Aeropuerto</t>
   </si>
   <si>
+    <t>salida</t>
+  </si>
+  <si>
+    <t>ofrece</t>
+  </si>
+  <si>
     <t>codigo_vuelo</t>
   </si>
   <si>
+    <t>huso_horario</t>
+  </si>
+  <si>
     <t>direccíon</t>
   </si>
   <si>
     <t>teléfono</t>
   </si>
   <si>
+    <t>hora</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>porc_sobreventa</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>cant_asientos</t>
+  </si>
+  <si>
     <t>Avion</t>
   </si>
   <si>
+    <t>instancia_vuelo</t>
+  </si>
+  <si>
     <t>modelo</t>
   </si>
   <si>
@@ -45,6 +72,9 @@
     <t>nombre_fabricante</t>
   </si>
   <si>
+    <t>estado</t>
+  </si>
+  <si>
     <t>Reserva</t>
   </si>
   <si>
@@ -54,9 +84,6 @@
     <t>fecha_vencimiento</t>
   </si>
   <si>
-    <t>estado</t>
-  </si>
-  <si>
     <t>fecha_solicitud</t>
   </si>
   <si>
@@ -114,49 +141,25 @@
     <t>dirección</t>
   </si>
   <si>
-    <t>salida</t>
-  </si>
-  <si>
-    <t>hora</t>
-  </si>
-  <si>
-    <t>fecha</t>
-  </si>
-  <si>
     <t>dni</t>
-  </si>
-  <si>
-    <t>instancia_vuelo</t>
-  </si>
-  <si>
-    <t>ofrece</t>
-  </si>
-  <si>
-    <t>porc_sobreventa</t>
-  </si>
-  <si>
-    <t>precio</t>
-  </si>
-  <si>
-    <t>cant_asientos</t>
-  </si>
-  <si>
-    <t>huso_horario</t>
-  </si>
-  <si>
-    <t>GMT-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,19 +167,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -186,42 +526,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -229,45 +569,284 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -281,10 +860,57 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
+    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
+    <cellStyle name="Coma" xfId="6" builtinId="3"/>
+    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21"/>
+    <cellStyle name="Nota" xfId="11" builtinId="10"/>
+    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
+    <cellStyle name="Título" xfId="14" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
+    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
+    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
+    <cellStyle name="Total" xfId="22" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
+    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
+    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
+    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
+    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
+    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
+    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
+    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
+    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -575,30 +1201,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="18.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="12.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="18.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="15.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="6.57142857142857" customWidth="1"/>
+    <col min="11" max="11" width="13.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,384 +1232,389 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="I1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1643</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="8"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="10" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F1:G1"/>
     <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A50:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>